--- a/VuKimDuy_GenerateReportYearly_Consumer/Data/Config.xlsx
+++ b/VuKimDuy_GenerateReportYearly_Consumer/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\extra_ui-path\Assignment_1\SE182407_VuKImDuy_GenerateReportYearly_Consumer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Learning\extra_ui-path\Assignment_1\Submission\VuKimDuy_GenerateReportYearly_Consumer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A8DCD-B55E-4F59-8D56-280D736B934D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97579EA7-2133-4DE1-A336-EEB5B416E2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="3150" windowWidth="21600" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5490" yWindow="1245" windowWidth="21600" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -159,24 +159,12 @@
     <t>Logging field which allows grouping of log data of two or more subprocesses under the same business process name</t>
   </si>
   <si>
-    <t>Browser_Url</t>
-  </si>
-  <si>
     <t>Account_System1_Credential</t>
   </si>
   <si>
     <t>Assignment 1 - Generate Yearly Report - Performer</t>
   </si>
   <si>
-    <t>Browser_Url_WorkItems</t>
-  </si>
-  <si>
-    <t>Browser_Url_DownloadMonthlyReports</t>
-  </si>
-  <si>
-    <t>Browser_Url_UploadYearlyReport</t>
-  </si>
-  <si>
     <t>Directory_TempReports</t>
   </si>
   <si>
@@ -201,13 +189,49 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>Browser_Url_WorkItem_Update</t>
-  </si>
-  <si>
     <t>https://acme-test.uipath.com/work-items/update</t>
   </si>
   <si>
-    <t>Browser_Url_Dashboard</t>
+    <t>Url_Browser</t>
+  </si>
+  <si>
+    <t>Url_Browser_Dashboard</t>
+  </si>
+  <si>
+    <t>Url_Browser_WorkItems</t>
+  </si>
+  <si>
+    <t>Url_Browser_WorkItem_Update</t>
+  </si>
+  <si>
+    <t>Url_Browser_DownloadMonthlyReports</t>
+  </si>
+  <si>
+    <t>Url_Browser_UploadYearlyReport</t>
+  </si>
+  <si>
+    <t>Process_Chrome</t>
+  </si>
+  <si>
+    <t>chrome.exe</t>
+  </si>
+  <si>
+    <t>Username or Password is not correct</t>
+  </si>
+  <si>
+    <t>LogMessage_LoginFailed</t>
+  </si>
+  <si>
+    <t>Directory_YearlyReports</t>
+  </si>
+  <si>
+    <t>Data\Output\Reports</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/login</t>
+  </si>
+  <si>
+    <t>Url_Browser_Login</t>
   </si>
 </sst>
 </file>
@@ -259,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -269,6 +293,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -661,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>44</v>
@@ -669,26 +694,26 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -696,47 +721,74 @@
         <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -748,10 +800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -931,6 +983,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -942,7 +1002,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
